--- a/computer graduation/table/实习报告_朱赫.xlsx
+++ b/computer graduation/table/实习报告_朱赫.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\software-hezhu\ZhuPersonGit\computer graduation\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitcode\zhubiye\computer graduation\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A083F028-F981-4A76-9E1B-56C9A425B268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41382DBA-DB94-41E9-B161-0C959C6194FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="朱赫大作业报告" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>运行环境</t>
     <phoneticPr fontId="4"/>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">    检索</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>分数的范围查询未实装</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -182,7 +178,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>JAVA11+MySql+Office</t>
+    <t>VS2019+SQLServer2019+Office2016</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -369,25 +365,64 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3369475" cy="4750264"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F7CE7C-81E7-4154-B4A1-1C08E447B180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1225550" y="958850"/>
+          <a:ext cx="3369475" cy="4750264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BEAD0D-66B7-416E-9B9E-ADD7489D2DFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{140F4339-AEB4-4805-82A9-E0F536757C71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -395,72 +430,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="844550" y="9750425"/>
-          <a:ext cx="3956050" cy="1228725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>图</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96886EAA-8A3F-4ABD-B6D2-506325D25BF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="920750" y="11610975"/>
-          <a:ext cx="3956050" cy="1216025"/>
+          <a:off x="1371600" y="10719435"/>
+          <a:ext cx="3467100" cy="1198245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -501,13 +472,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -515,7 +486,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B7B91C-4861-4383-A460-6CF6263D92FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A77AF2-030A-4189-8238-0A79D0DAE655}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -523,8 +494,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="901700" y="13261975"/>
-          <a:ext cx="3956050" cy="1196975"/>
+          <a:off x="1352550" y="12315825"/>
+          <a:ext cx="3467100" cy="1175385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -565,13 +536,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -579,7 +550,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10FE851-FFE8-4DDE-9B65-016A4C4888EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC49C6F-2F99-4B69-8A47-1C0A88CBA10E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -587,8 +558,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="958850" y="14884400"/>
-          <a:ext cx="3956050" cy="1203325"/>
+          <a:off x="1409700" y="13883640"/>
+          <a:ext cx="3467100" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -629,13 +600,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -643,7 +614,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9098A458-4938-4F56-AF46-03D7034E7434}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4805FCC5-9A4E-4B6F-B1F9-757D4B7A676D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -651,8 +622,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="977900" y="16525875"/>
-          <a:ext cx="3956050" cy="1196975"/>
+          <a:off x="1428750" y="15470505"/>
+          <a:ext cx="3444240" cy="1175385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -691,66 +662,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>109197</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>68582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57209</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7A2A27-F5B2-4773-B5EA-D4F40DBF7177}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect b="6977"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="419101" y="1182347"/>
-          <a:ext cx="3283008" cy="4685053"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>158869</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B62E12-E936-413B-A79F-6A3E94272D13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089EBFF6-836D-467A-804B-0B0F0CF9103F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -766,8 +694,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419101" y="5810250"/>
-          <a:ext cx="3282949" cy="4667369"/>
+          <a:off x="792480" y="9936482"/>
+          <a:ext cx="8176260" cy="3962512"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1041,367 +969,355 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O170"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65193A0-6177-47A2-8F88-795557DB8FF1}">
+  <dimension ref="B2:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="15" max="15" width="54.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="15" max="15" width="54.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="20">
+    <row r="2" spans="2:3" ht="20.399999999999999">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="16.5">
+    <row r="3" spans="2:3" ht="15.6">
       <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="20.399999999999999">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:15" ht="16.5">
-      <c r="C101" s="3" t="s">
+    <row r="35" spans="2:15" ht="15.6">
+      <c r="C35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="6"/>
-    </row>
-    <row r="102" spans="2:15" ht="16.5">
-      <c r="C102" s="7" t="s">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="2:15" ht="15.6">
+      <c r="C36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="10"/>
-    </row>
-    <row r="103" spans="2:15" ht="16.5">
-      <c r="C103" s="7" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="2:15" ht="15.6">
+      <c r="C37" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="10"/>
-    </row>
-    <row r="105" spans="2:15" ht="17.5">
-      <c r="B105" s="11" t="s">
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="10"/>
+    </row>
+    <row r="39" spans="2:15" ht="17.399999999999999">
+      <c r="B39" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="2:15" ht="16.5">
-      <c r="C106" s="3" t="s">
+    <row r="40" spans="2:15" ht="15.6">
+      <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="12" t="s">
+      <c r="D40" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="13" t="s">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O106" s="13" t="s">
+      <c r="O40" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:15" ht="16.5">
-      <c r="C107" s="14">
+    <row r="41" spans="2:15" ht="15.6">
+      <c r="C41" s="14">
         <v>1</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E107" s="15">
+      <c r="E41" s="15">
         <v>1</v>
       </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="14"/>
-      <c r="O107" s="14"/>
-    </row>
-    <row r="108" spans="2:15" ht="16.5">
-      <c r="C108" s="14">
+      <c r="F41" s="8"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+    </row>
+    <row r="42" spans="2:15" ht="15.6">
+      <c r="C42" s="14">
         <v>2</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="15">
+      <c r="E42" s="15">
         <v>1</v>
       </c>
-      <c r="F108" s="8"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="14"/>
-      <c r="O108" s="14"/>
-    </row>
-    <row r="109" spans="2:15" ht="16.5">
-      <c r="C109" s="14">
+      <c r="F42" s="8"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+    </row>
+    <row r="43" spans="2:15" ht="15.6">
+      <c r="C43" s="14">
         <v>3</v>
       </c>
-      <c r="D109" s="16" t="s">
+      <c r="D43" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E109" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="F109" s="8" t="s">
+      <c r="E43" s="15">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+    </row>
+    <row r="44" spans="2:15" ht="15.6">
+      <c r="C44" s="14">
+        <v>4</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="14"/>
-      <c r="O109" s="14"/>
-    </row>
-    <row r="110" spans="2:15" ht="16.5">
-      <c r="C110" s="14">
-        <v>4</v>
-      </c>
-      <c r="D110" s="16" t="s">
+      <c r="E44" s="15">
+        <v>1</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+    </row>
+    <row r="45" spans="2:15" ht="31.2">
+      <c r="C45" s="14">
+        <v>5</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E110" s="15">
+      <c r="E45" s="15">
         <v>1</v>
       </c>
-      <c r="F110" s="8"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="14"/>
-      <c r="O110" s="14"/>
-    </row>
-    <row r="111" spans="2:15" ht="16.5">
-      <c r="C111" s="14">
-        <v>5</v>
-      </c>
-      <c r="D111" s="16" t="s">
+      <c r="F45" s="8"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+    </row>
+    <row r="46" spans="2:15" ht="15.6">
+      <c r="C46" s="14">
+        <v>6</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E46" s="15">
+        <v>1</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+    </row>
+    <row r="47" spans="2:15" ht="15.6">
+      <c r="C47" s="14">
+        <v>7</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="15">
+        <v>1</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+    </row>
+    <row r="48" spans="2:15" ht="15.6">
+      <c r="C48" s="14">
+        <v>8</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="15">
+        <v>1</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+    </row>
+    <row r="49" spans="3:15" ht="15.6">
+      <c r="C49" s="14">
+        <v>9</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="15">
+        <v>1</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+    </row>
+    <row r="51" spans="3:15" ht="15.6">
+      <c r="C51" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" ht="15.6">
+      <c r="C81" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" ht="15.6">
+      <c r="C82" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" ht="15.6">
+      <c r="C91" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" ht="15.6">
+      <c r="C100" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" ht="15.6">
+      <c r="C109" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" ht="15.6">
+      <c r="C118" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F111" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="10"/>
-      <c r="N111" s="14"/>
-      <c r="O111" s="14"/>
-    </row>
-    <row r="112" spans="2:15" ht="16.5">
-      <c r="C112" s="14">
-        <v>6</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9"/>
-      <c r="M112" s="10"/>
-      <c r="N112" s="14"/>
-      <c r="O112" s="14"/>
-    </row>
-    <row r="113" spans="3:15" ht="16.5">
-      <c r="C113" s="14">
-        <v>7</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
-      <c r="M113" s="10"/>
-      <c r="N113" s="14"/>
-      <c r="O113" s="14"/>
-    </row>
-    <row r="114" spans="3:15" ht="16.5">
-      <c r="C114" s="14">
-        <v>8</v>
-      </c>
-      <c r="D114" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="14"/>
-      <c r="O114" s="14"/>
-    </row>
-    <row r="115" spans="3:15" ht="16.5">
-      <c r="C115" s="14">
-        <v>9</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="9"/>
-      <c r="M115" s="10"/>
-      <c r="N115" s="14"/>
-      <c r="O115" s="14"/>
-    </row>
-    <row r="117" spans="3:15" ht="16.5">
-      <c r="C117" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="126" spans="3:15" ht="16.5">
-      <c r="C126" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" spans="3:15" ht="16.5">
-      <c r="C127" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3" ht="16.5">
-      <c r="C136" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="145" spans="3:3" ht="16.5">
-      <c r="C145" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="154" spans="3:3" ht="16.5">
-      <c r="C154" s="2" t="s">
+    </row>
+    <row r="120" spans="2:3" ht="20.399999999999999">
+      <c r="B120" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="2:3" ht="16.5">
-      <c r="C163" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" ht="20">
-      <c r="B165" s="1" t="s">
+    <row r="122" spans="2:3" ht="15.6">
+      <c r="C122" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="2:3" ht="16.5">
-      <c r="C167" s="2" t="s">
+    <row r="123" spans="2:3" ht="15.6">
+      <c r="C123" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="2:3" ht="16.5">
-      <c r="C168" s="2" t="s">
+    <row r="125" spans="2:3" ht="15.6">
+      <c r="C125" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" ht="16.5">
-      <c r="C170" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/computer graduation/table/实习报告_朱赫.xlsx
+++ b/computer graduation/table/实习报告_朱赫.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitcode\zhubiye\computer graduation\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\software-hezhu\ZhuPersonGit\computer graduation\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41382DBA-DB94-41E9-B161-0C959C6194FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44191BB9-E80B-46FE-A6B5-49220FDECE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="朱赫大作业报告" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>运行环境</t>
     <phoneticPr fontId="4"/>
@@ -154,14 +154,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>2-3选择总分，输入分数下线，检索总分&gt;=分数下线数据（范围查询）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>2-4选择单科，输入分数上线，下线，检索分数下线&lt;=单科&lt;=分数上线数据（范围查询）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>经验总结</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -178,8 +170,18 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>VS2019+SQLServer2019+Office2016</t>
-    <phoneticPr fontId="4"/>
+    <t>VS2019+SQLServer2019+Off ce2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2-3选择单科，输入分数上线，下线，检索分数下线&lt;=单科&lt;=分数上线数据（范围查询）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3 新增，编辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -404,274 +406,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{140F4339-AEB4-4805-82A9-E0F536757C71}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="10719435"/>
-          <a:ext cx="3467100" cy="1198245"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>图</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A77AF2-030A-4189-8238-0A79D0DAE655}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1352550" y="12315825"/>
-          <a:ext cx="3467100" cy="1175385"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>图</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC49C6F-2F99-4B69-8A47-1C0A88CBA10E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1409700" y="13883640"/>
-          <a:ext cx="3467100" cy="1190625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>图</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4805FCC5-9A4E-4B6F-B1F9-757D4B7A676D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1428750" y="15470505"/>
-          <a:ext cx="3444240" cy="1175385"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>图</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>68582</xdr:rowOff>
+      <xdr:colOff>48832</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>7680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>114</xdr:rowOff>
+      <xdr:colOff>4067641</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>25791</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -694,8 +440,228 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="792480" y="9936482"/>
-          <a:ext cx="8176260" cy="3962512"/>
+          <a:off x="810832" y="9794151"/>
+          <a:ext cx="12140459" cy="5582578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>90326</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>22039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3058058</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>168649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7538F790-D7D7-4493-A5A4-B52612037789}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="852326" y="16393833"/>
+          <a:ext cx="11136820" cy="5592669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>64062</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2693158</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>46505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E35F7BC-C927-455B-97FA-062FB2557F24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="826062" y="23308236"/>
+          <a:ext cx="10798184" cy="5378823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>321795</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2874464</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>97677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460B19D0-CBEE-4967-B725-125EEB0B7365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="736413" y="29280971"/>
+          <a:ext cx="11069139" cy="5521324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333000</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>102533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2723029</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>63721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BC1B93-97C6-4EDA-A8FB-1EF9F2092359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="747618" y="35524327"/>
+          <a:ext cx="10906499" cy="6306893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347381</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2747526</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74790E74-AFB9-4ACD-B030-425A68D729AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="761999" y="41977235"/>
+          <a:ext cx="10916615" cy="6320118"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -970,36 +936,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65193A0-6177-47A2-8F88-795557DB8FF1}">
-  <dimension ref="B2:O125"/>
+  <dimension ref="A2:O253"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="15" max="15" width="54.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.4140625" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="15" max="15" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="20.399999999999999">
+    <row r="2" spans="2:3" ht="20">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.6">
+    <row r="3" spans="2:3" ht="16.5">
       <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="20.399999999999999">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="20">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="15.6">
+    <row r="35" spans="2:15" ht="16.5">
       <c r="C35" s="3" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +980,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="2:15" ht="15.6">
+    <row r="36" spans="2:15" ht="16.5">
       <c r="C36" s="7" t="s">
         <v>4</v>
       </c>
@@ -1029,7 +995,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="2:15" ht="15.6">
+    <row r="37" spans="2:15" ht="16.5">
       <c r="C37" s="7" t="s">
         <v>6</v>
       </c>
@@ -1044,12 +1010,12 @@
       <c r="J37" s="9"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="39" spans="2:15" ht="17.399999999999999">
+    <row r="39" spans="2:15" ht="17.5">
       <c r="B39" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="15.6">
+    <row r="40" spans="2:15" ht="16.5">
       <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
@@ -1076,7 +1042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="15.6">
+    <row r="41" spans="2:15" ht="16.5">
       <c r="C41" s="14">
         <v>1</v>
       </c>
@@ -1097,7 +1063,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="2:15" ht="15.6">
+    <row r="42" spans="2:15" ht="16.5">
       <c r="C42" s="14">
         <v>2</v>
       </c>
@@ -1118,7 +1084,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="2:15" ht="15.6">
+    <row r="43" spans="2:15" ht="16.5">
       <c r="C43" s="14">
         <v>3</v>
       </c>
@@ -1139,7 +1105,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="2:15" ht="15.6">
+    <row r="44" spans="2:15" ht="16.5">
       <c r="C44" s="14">
         <v>4</v>
       </c>
@@ -1160,7 +1126,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="2:15" ht="31.2">
+    <row r="45" spans="2:15" ht="16.5">
       <c r="C45" s="14">
         <v>5</v>
       </c>
@@ -1181,7 +1147,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="2:15" ht="15.6">
+    <row r="46" spans="2:15" ht="16.5">
       <c r="C46" s="14">
         <v>6</v>
       </c>
@@ -1202,7 +1168,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
     </row>
-    <row r="47" spans="2:15" ht="15.6">
+    <row r="47" spans="2:15" ht="16.5">
       <c r="C47" s="14">
         <v>7</v>
       </c>
@@ -1223,7 +1189,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
     </row>
-    <row r="48" spans="2:15" ht="15.6">
+    <row r="48" spans="2:15" ht="16.5">
       <c r="C48" s="14">
         <v>8</v>
       </c>
@@ -1244,7 +1210,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="14"/>
     </row>
-    <row r="49" spans="3:15" ht="15.6">
+    <row r="49" spans="3:15" ht="16.5">
       <c r="C49" s="14">
         <v>9</v>
       </c>
@@ -1265,59 +1231,357 @@
       <c r="N49" s="14"/>
       <c r="O49" s="14"/>
     </row>
-    <row r="51" spans="3:15" ht="15.6">
+    <row r="51" spans="3:15" ht="16.5">
       <c r="C51" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="3:3" ht="15.6">
-      <c r="C81" s="2" t="s">
+    <row r="86" spans="3:3" ht="16.5">
+      <c r="C86" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="3:3" ht="15.6">
-      <c r="C82" s="2" t="s">
+    <row r="87" spans="3:3" ht="16.5">
+      <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="3:3" ht="15.6">
-      <c r="C91" s="2" t="s">
+    <row r="97" spans="3:3" ht="16.5">
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="3:3" ht="16.5">
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="3:3" ht="16.5">
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="3:3" ht="16.5">
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="3:3" ht="16.5">
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="3:3" ht="16.5">
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="3:3" ht="16.5">
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="3:3" ht="16.5">
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="3:3" ht="16.5">
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="3:3" ht="16.5">
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="3:3" ht="16.5">
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="3:3" ht="16.5">
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="3:3" ht="16.5">
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="3:3" ht="16.5">
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="3:3" ht="16.5">
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="3:3" ht="16.5">
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="3:3" ht="16.5">
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="3:3" ht="16.5">
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="3:3" ht="16.5">
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="3:3" ht="16.5">
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="3:3" ht="16.5">
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="3:3" ht="16.5">
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119" spans="3:3" ht="16.5">
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="3:3" ht="16.5">
+      <c r="C120" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="3:3" ht="15.6">
-      <c r="C100" s="2" t="s">
+    <row r="121" spans="3:3" ht="16.5">
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="3:3" ht="16.5">
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="3:3" ht="16.5">
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="3:3" ht="16.5">
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" spans="3:3" ht="16.5">
+      <c r="C125" s="2"/>
+    </row>
+    <row r="126" spans="3:3" ht="16.5">
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127" spans="3:3" ht="16.5">
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128" spans="3:3" ht="16.5">
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129" spans="1:3" ht="16.5">
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="1:3" ht="16.5">
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131" spans="1:3" ht="16.5">
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:3" ht="16.5">
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="1:3" ht="16.5">
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="1:3" ht="16.5">
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="1:3" ht="16.5">
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" spans="1:3" ht="16.5">
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137" spans="1:3" ht="16.5">
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" spans="1:3" ht="16.5">
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139" spans="1:3" ht="16.5">
+      <c r="A139" t="s">
+        <v>32</v>
+      </c>
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="1:3" ht="16.5">
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141" spans="1:3" ht="16.5">
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142" spans="1:3" ht="16.5">
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" spans="1:3" ht="16.5">
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" spans="1:3" ht="16.5">
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" spans="3:3" ht="16.5">
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146" spans="3:3" ht="16.5">
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147" spans="3:3" ht="16.5">
+      <c r="C147" s="2"/>
+    </row>
+    <row r="149" spans="3:3" ht="16.5">
+      <c r="C149" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" ht="16.5">
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" spans="3:3" ht="16.5">
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" spans="3:3" ht="16.5">
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153" spans="3:3" ht="16.5">
+      <c r="C153" s="2"/>
+    </row>
+    <row r="154" spans="3:3" ht="16.5">
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" spans="3:3" ht="16.5">
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156" spans="3:3" ht="16.5">
+      <c r="C156" s="2"/>
+    </row>
+    <row r="157" spans="3:3" ht="16.5">
+      <c r="C157" s="2"/>
+    </row>
+    <row r="158" spans="3:3" ht="16.5">
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159" spans="3:3" ht="16.5">
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160" spans="3:3" ht="16.5">
+      <c r="C160" s="2"/>
+    </row>
+    <row r="161" spans="3:3" ht="16.5">
+      <c r="C161" s="2"/>
+    </row>
+    <row r="162" spans="3:3" ht="16.5">
+      <c r="C162" s="2"/>
+    </row>
+    <row r="163" spans="3:3" ht="16.5">
+      <c r="C163" s="2"/>
+    </row>
+    <row r="164" spans="3:3" ht="16.5">
+      <c r="C164" s="2"/>
+    </row>
+    <row r="165" spans="3:3" ht="16.5">
+      <c r="C165" s="2"/>
+    </row>
+    <row r="166" spans="3:3" ht="16.5">
+      <c r="C166" s="2"/>
+    </row>
+    <row r="167" spans="3:3" ht="16.5">
+      <c r="C167" s="2"/>
+    </row>
+    <row r="168" spans="3:3" ht="16.5">
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169" spans="3:3" ht="16.5">
+      <c r="C169" s="2"/>
+    </row>
+    <row r="170" spans="3:3" ht="16.5">
+      <c r="C170" s="2"/>
+    </row>
+    <row r="171" spans="3:3" ht="16.5">
+      <c r="C171" s="2"/>
+    </row>
+    <row r="172" spans="3:3" ht="16.5">
+      <c r="C172" s="2"/>
+    </row>
+    <row r="173" spans="3:3" ht="16.5">
+      <c r="C173" s="2"/>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" ht="16.5">
+      <c r="C213" s="2"/>
+    </row>
+    <row r="214" spans="3:3" ht="16.5">
+      <c r="C214" s="2"/>
+    </row>
+    <row r="215" spans="3:3" ht="16.5">
+      <c r="C215" s="2"/>
+    </row>
+    <row r="216" spans="3:3" ht="16.5">
+      <c r="C216" s="2"/>
+    </row>
+    <row r="217" spans="3:3" ht="16.5">
+      <c r="C217" s="2"/>
+    </row>
+    <row r="218" spans="3:3" ht="16.5">
+      <c r="C218" s="2"/>
+    </row>
+    <row r="219" spans="3:3" ht="16.5">
+      <c r="C219" s="2"/>
+    </row>
+    <row r="220" spans="3:3" ht="16.5">
+      <c r="C220" s="2"/>
+    </row>
+    <row r="221" spans="3:3" ht="16.5">
+      <c r="C221" s="2"/>
+    </row>
+    <row r="222" spans="3:3" ht="16.5">
+      <c r="C222" s="2"/>
+    </row>
+    <row r="223" spans="3:3" ht="16.5">
+      <c r="C223" s="2"/>
+    </row>
+    <row r="224" spans="3:3" ht="16.5">
+      <c r="C224" s="2"/>
+    </row>
+    <row r="225" spans="3:3" ht="16.5">
+      <c r="C225" s="2"/>
+    </row>
+    <row r="226" spans="3:3" ht="16.5">
+      <c r="C226" s="2"/>
+    </row>
+    <row r="227" spans="3:3" ht="16.5">
+      <c r="C227" s="2"/>
+    </row>
+    <row r="228" spans="3:3" ht="16.5">
+      <c r="C228" s="2"/>
+    </row>
+    <row r="229" spans="3:3" ht="16.5">
+      <c r="C229" s="2"/>
+    </row>
+    <row r="230" spans="3:3" ht="16.5">
+      <c r="C230" s="2"/>
+    </row>
+    <row r="231" spans="3:3" ht="16.5">
+      <c r="C231" s="2"/>
+    </row>
+    <row r="232" spans="3:3" ht="16.5">
+      <c r="C232" s="2"/>
+    </row>
+    <row r="233" spans="3:3" ht="16.5">
+      <c r="C233" s="2"/>
+    </row>
+    <row r="234" spans="3:3" ht="16.5">
+      <c r="C234" s="2"/>
+    </row>
+    <row r="235" spans="3:3" ht="16.5">
+      <c r="C235" s="2"/>
+    </row>
+    <row r="236" spans="3:3" ht="16.5">
+      <c r="C236" s="2"/>
+    </row>
+    <row r="237" spans="3:3" ht="16.5">
+      <c r="C237" s="2"/>
+    </row>
+    <row r="246" spans="2:3" ht="16.5">
+      <c r="C246" s="2"/>
+    </row>
+    <row r="248" spans="2:3" ht="20">
+      <c r="B248" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="3:3" ht="15.6">
-      <c r="C109" s="2" t="s">
+    <row r="250" spans="2:3" ht="16.5">
+      <c r="C250" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="2:3" ht="15.6">
-      <c r="C118" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" ht="20.399999999999999">
-      <c r="B120" s="1" t="s">
+    <row r="251" spans="2:3" ht="16.5">
+      <c r="C251" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="2:3" ht="15.6">
-      <c r="C122" s="2" t="s">
+    <row r="253" spans="2:3" ht="16.5">
+      <c r="C253" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" ht="15.6">
-      <c r="C123" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" ht="15.6">
-      <c r="C125" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/computer graduation/table/实习报告_朱赫.xlsx
+++ b/computer graduation/table/实习报告_朱赫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\software-hezhu\ZhuPersonGit\computer graduation\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44191BB9-E80B-46FE-A6B5-49220FDECE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E885047-02EB-4482-B9A9-DDCA15822627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>运行环境</t>
     <phoneticPr fontId="4"/>
@@ -40,18 +40,6 @@
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Dao</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>DB访问层，提供各表增删改查</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>...</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -162,17 +150,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>采用实现INotifyDataErrorInfo接口+属性特性验证的方式...</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>2...</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>VS2019+SQLServer2019+Off ce2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -181,6 +158,129 @@
   </si>
   <si>
     <t>3 新增，编辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动方式</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>JDK11+MySql8.0+Office2016</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序启动后，访问服务器8080端口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生管理システム</t>
+  </si>
+  <si>
+    <t>存放程序的配置文件，JDBC、Spring等</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>config</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>controller</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>控制器层，接受客户端请求，并返回响应结果</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>数据访问层，对数据进行增删改查等操作</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>domain</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>实体类层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pojo</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>用于存储和传递数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>用于处理业务逻辑和数据处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>service/imlp</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>service层接口</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>utils</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>工具类</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>测试层</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>*log出力：info信息出力在src同级目录下的logs目录中，error出力在C盘的StudentLog_下</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.导出Excel</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>前端check时，将两个表单的rules写在了一个里面，中间遇到了较多的问题，如学分校验不成功，但后来都解决了</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>使用了工具类，但是在使用时，发现扩展性并不强，如将List遍历后写入Excel时，工具类并不能反射指定类的指定属性，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以在使用时，做了修改，但是修改后觉得工具类没必要使用了，因为每有一个List&lt;?&gt;,工具类中就要做一次判断。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.前端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端存在问题，每次页面加载或者有页面动作的时候，都会报出modle和round的错误，由于时间原因，未修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.jar包可能有问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是由于Tomcat解析Jackson库的时候出现问题，可能是由于不兼容的Jackson库版本导致的。时间原因至今未找到解决办法，但不耽误程序的正常运行</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +340,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -324,10 +432,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -348,9 +457,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,56 +481,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3369475" cy="4750264"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F7CE7C-81E7-4154-B4A1-1C08E447B180}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1225550" y="958850"/>
-          <a:ext cx="3369475" cy="4750264"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>48832</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>7680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>4067641</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:colOff>3686641</xdr:colOff>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>25791</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -433,7 +508,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -454,13 +529,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>90326</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>22039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>3058058</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:colOff>2673883</xdr:colOff>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>168649</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -477,7 +552,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -498,13 +573,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>64062</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>2693158</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:colOff>2312158</xdr:colOff>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>46505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -521,7 +596,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -542,13 +617,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>321795</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>2874464</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:colOff>2493464</xdr:colOff>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>97677</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -565,7 +640,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -586,13 +661,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333000</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>102533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>2723029</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:colOff>2342029</xdr:colOff>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>63721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -609,7 +684,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -630,13 +705,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>347381</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>2747526</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:colOff>2372876</xdr:colOff>
+      <xdr:row>285</xdr:row>
       <xdr:rowOff>201706</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -653,7 +728,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -662,6 +737,182 @@
         <a:xfrm>
           <a:off x="761999" y="41977235"/>
           <a:ext cx="10916615" cy="6320118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160156</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B690D27C-7A22-4FCD-879F-EB307D949CA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428626" y="1343025"/>
+          <a:ext cx="6370455" cy="4419599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>488524</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>59639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58886002-32B8-4876-BCD1-6FC3B4E863AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="7000875"/>
+          <a:ext cx="3409524" cy="5485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080D83C1-6A32-43FF-9AAC-AEF26CCAD517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5006975" y="7000875"/>
+          <a:ext cx="3603625" cy="5553236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>229153</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>155574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CDEB0D1-CB87-46E0-86F7-0312595E347A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486899" y="6991349"/>
+          <a:ext cx="3801029" cy="1612900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -936,16 +1187,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65193A0-6177-47A2-8F88-795557DB8FF1}">
-  <dimension ref="A2:O253"/>
+  <dimension ref="A2:O301"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A289" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G301" sqref="G301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.4140625" customWidth="1"/>
     <col min="2" max="2" width="4.58203125" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="15" max="15" width="54.75" customWidth="1"/>
   </cols>
@@ -957,442 +1209,547 @@
     </row>
     <row r="3" spans="2:3" ht="16.5">
       <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="16.5">
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="2:3" ht="20">
       <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:3" ht="16.5">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="2:3" ht="16.5">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="2:3" ht="16.5">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="2:3" ht="16.5">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:3" ht="16.5">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="2:3" ht="16.5">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:3" ht="16.5">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:3" ht="16.5">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:3" ht="16.5">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:3" ht="16.5">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:3" ht="16.5">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3" ht="16.5">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:3" ht="16.5">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:3" ht="16.5">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="2:3" ht="16.5">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="2:3" ht="16.5">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="2:3" ht="16.5">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="2:3" ht="16.5">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="2:3" ht="16.5">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="2:3" ht="16.5">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="2:3" ht="16.5">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="2:3" ht="16.5">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="2:3" ht="16.5">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="2:3" ht="16.5">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:3" ht="16.5">
+      <c r="B30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:3" ht="16.5">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="33" spans="2:2" ht="20">
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="16.5">
-      <c r="C35" s="3" t="s">
+    <row r="67" spans="2:15" ht="16.5">
+      <c r="C67" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="2:15" ht="16.5">
-      <c r="C36" s="7" t="s">
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="2:15" ht="16.5">
+      <c r="C68" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="10"/>
+    </row>
+    <row r="69" spans="2:15" ht="16.5">
+      <c r="C69" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="10"/>
+    </row>
+    <row r="70" spans="2:15" ht="16.5">
+      <c r="C70" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="10"/>
+    </row>
+    <row r="71" spans="2:15" ht="16.5">
+      <c r="C71" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="10"/>
+    </row>
+    <row r="72" spans="2:15" ht="16.5">
+      <c r="C72" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="10"/>
+    </row>
+    <row r="73" spans="2:15" ht="16.5">
+      <c r="C73" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="10"/>
+    </row>
+    <row r="74" spans="2:15" ht="16.5">
+      <c r="C74" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="10"/>
+    </row>
+    <row r="75" spans="2:15" ht="16.5">
+      <c r="C75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="10"/>
+    </row>
+    <row r="76" spans="2:15" ht="16.5">
+      <c r="C76" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="10"/>
+    </row>
+    <row r="77" spans="2:15" ht="17.5">
+      <c r="B77" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="8" t="s">
+    </row>
+    <row r="78" spans="2:15" ht="16.5">
+      <c r="C78" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="2:15" ht="16.5">
-      <c r="C37" s="7" t="s">
+      <c r="D78" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="E78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O78" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" ht="16.5">
+      <c r="C79" s="14">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="15">
+        <v>1</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+    </row>
+    <row r="80" spans="2:15" ht="16.5">
+      <c r="C80" s="14">
+        <v>2</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="15">
+        <v>1</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+    </row>
+    <row r="81" spans="3:15" ht="16.5">
+      <c r="C81" s="14">
+        <v>3</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="15">
+        <v>1</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+    </row>
+    <row r="82" spans="3:15" ht="16.5">
+      <c r="C82" s="14">
+        <v>4</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="15">
+        <v>1</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+    </row>
+    <row r="83" spans="3:15" ht="16.5">
+      <c r="C83" s="14">
+        <v>5</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="15">
+        <v>1</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+    </row>
+    <row r="84" spans="3:15" ht="16.5">
+      <c r="C84" s="14">
         <v>6</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="10"/>
-    </row>
-    <row r="39" spans="2:15" ht="17.5">
-      <c r="B39" s="11" t="s">
+      <c r="D84" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="15">
+        <v>1</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+    </row>
+    <row r="85" spans="3:15" ht="16.5">
+      <c r="C85" s="14">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="2:15" ht="16.5">
-      <c r="C40" s="3" t="s">
+      <c r="D85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="15">
+        <v>1</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+    </row>
+    <row r="86" spans="3:15" ht="16.5">
+      <c r="C86" s="14">
         <v>8</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D86" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="15">
+        <v>1</v>
+      </c>
+      <c r="F86" s="8"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+    </row>
+    <row r="87" spans="3:15" ht="16.5">
+      <c r="C87" s="14">
         <v>9</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O40" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" ht="16.5">
-      <c r="C41" s="14">
+      <c r="D87" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="15">
         <v>1</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="15">
-        <v>1</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-    </row>
-    <row r="42" spans="2:15" ht="16.5">
-      <c r="C42" s="14">
-        <v>2</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="15">
-        <v>1</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-    </row>
-    <row r="43" spans="2:15" ht="16.5">
-      <c r="C43" s="14">
-        <v>3</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="15">
-        <v>1</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-    </row>
-    <row r="44" spans="2:15" ht="16.5">
-      <c r="C44" s="14">
-        <v>4</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="15">
-        <v>1</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-    </row>
-    <row r="45" spans="2:15" ht="16.5">
-      <c r="C45" s="14">
-        <v>5</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="15">
-        <v>1</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-    </row>
-    <row r="46" spans="2:15" ht="16.5">
-      <c r="C46" s="14">
-        <v>6</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="15">
-        <v>1</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-    </row>
-    <row r="47" spans="2:15" ht="16.5">
-      <c r="C47" s="14">
-        <v>7</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="F87" s="8"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
+    </row>
+    <row r="88" spans="3:15" ht="16.5">
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+    </row>
+    <row r="89" spans="3:15" ht="16.5">
+      <c r="C89" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="20"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+    </row>
+    <row r="91" spans="3:15" ht="16.5">
+      <c r="C91" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="15">
-        <v>1</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-    </row>
-    <row r="48" spans="2:15" ht="16.5">
-      <c r="C48" s="14">
-        <v>8</v>
-      </c>
-      <c r="D48" s="16" t="s">
+    </row>
+    <row r="126" spans="3:3" ht="16.5">
+      <c r="C126" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="15">
-        <v>1</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-    </row>
-    <row r="49" spans="3:15" ht="16.5">
-      <c r="C49" s="14">
-        <v>9</v>
-      </c>
-      <c r="D49" s="7" t="s">
+    </row>
+    <row r="127" spans="3:3" ht="16.5">
+      <c r="C127" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="15">
-        <v>1</v>
-      </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-    </row>
-    <row r="51" spans="3:15" ht="16.5">
-      <c r="C51" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" ht="16.5">
-      <c r="C86" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" ht="16.5">
-      <c r="C87" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" ht="16.5">
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="3:3" ht="16.5">
-      <c r="C98" s="2"/>
-    </row>
-    <row r="99" spans="3:3" ht="16.5">
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="3:3" ht="16.5">
-      <c r="C100" s="2"/>
-    </row>
-    <row r="101" spans="3:3" ht="16.5">
-      <c r="C101" s="2"/>
-    </row>
-    <row r="102" spans="3:3" ht="16.5">
-      <c r="C102" s="2"/>
-    </row>
-    <row r="103" spans="3:3" ht="16.5">
-      <c r="C103" s="2"/>
-    </row>
-    <row r="104" spans="3:3" ht="16.5">
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105" spans="3:3" ht="16.5">
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="3:3" ht="16.5">
-      <c r="C106" s="2"/>
-    </row>
-    <row r="107" spans="3:3" ht="16.5">
-      <c r="C107" s="2"/>
-    </row>
-    <row r="108" spans="3:3" ht="16.5">
-      <c r="C108" s="2"/>
-    </row>
-    <row r="109" spans="3:3" ht="16.5">
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="3:3" ht="16.5">
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="3:3" ht="16.5">
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="3:3" ht="16.5">
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="3:3" ht="16.5">
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="3:3" ht="16.5">
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="3:3" ht="16.5">
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="3:3" ht="16.5">
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="3:3" ht="16.5">
-      <c r="C117" s="2"/>
-    </row>
-    <row r="118" spans="3:3" ht="16.5">
-      <c r="C118" s="2"/>
-    </row>
-    <row r="119" spans="3:3" ht="16.5">
-      <c r="C119" s="2"/>
-    </row>
-    <row r="120" spans="3:3" ht="16.5">
-      <c r="C120" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" ht="16.5">
-      <c r="C121" s="2"/>
-    </row>
-    <row r="122" spans="3:3" ht="16.5">
-      <c r="C122" s="2"/>
-    </row>
-    <row r="123" spans="3:3" ht="16.5">
-      <c r="C123" s="2"/>
-    </row>
-    <row r="124" spans="3:3" ht="16.5">
-      <c r="C124" s="2"/>
-    </row>
-    <row r="125" spans="3:3" ht="16.5">
-      <c r="C125" s="2"/>
-    </row>
-    <row r="126" spans="3:3" ht="16.5">
-      <c r="C126" s="2"/>
-    </row>
-    <row r="127" spans="3:3" ht="16.5">
-      <c r="C127" s="2"/>
-    </row>
-    <row r="128" spans="3:3" ht="16.5">
-      <c r="C128" s="2"/>
-    </row>
-    <row r="129" spans="1:3" ht="16.5">
-      <c r="C129" s="2"/>
-    </row>
-    <row r="130" spans="1:3" ht="16.5">
-      <c r="C130" s="2"/>
-    </row>
-    <row r="131" spans="1:3" ht="16.5">
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="1:3" ht="16.5">
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133" spans="1:3" ht="16.5">
-      <c r="C133" s="2"/>
-    </row>
-    <row r="134" spans="1:3" ht="16.5">
-      <c r="C134" s="2"/>
-    </row>
-    <row r="135" spans="1:3" ht="16.5">
-      <c r="C135" s="2"/>
-    </row>
-    <row r="136" spans="1:3" ht="16.5">
-      <c r="C136" s="2"/>
-    </row>
-    <row r="137" spans="1:3" ht="16.5">
+    </row>
+    <row r="137" spans="3:3" ht="16.5">
       <c r="C137" s="2"/>
     </row>
-    <row r="138" spans="1:3" ht="16.5">
+    <row r="138" spans="3:3" ht="16.5">
       <c r="C138" s="2"/>
     </row>
-    <row r="139" spans="1:3" ht="16.5">
-      <c r="A139" t="s">
-        <v>32</v>
-      </c>
+    <row r="139" spans="3:3" ht="16.5">
       <c r="C139" s="2"/>
     </row>
-    <row r="140" spans="1:3" ht="16.5">
+    <row r="140" spans="3:3" ht="16.5">
       <c r="C140" s="2"/>
     </row>
-    <row r="141" spans="1:3" ht="16.5">
+    <row r="141" spans="3:3" ht="16.5">
       <c r="C141" s="2"/>
     </row>
-    <row r="142" spans="1:3" ht="16.5">
+    <row r="142" spans="3:3" ht="16.5">
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="1:3" ht="16.5">
+    <row r="143" spans="3:3" ht="16.5">
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="1:3" ht="16.5">
+    <row r="144" spans="3:3" ht="16.5">
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="3:3" ht="16.5">
@@ -1404,10 +1761,11 @@
     <row r="147" spans="3:3" ht="16.5">
       <c r="C147" s="2"/>
     </row>
+    <row r="148" spans="3:3" ht="16.5">
+      <c r="C148" s="2"/>
+    </row>
     <row r="149" spans="3:3" ht="16.5">
-      <c r="C149" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="C149" s="2"/>
     </row>
     <row r="150" spans="3:3" ht="16.5">
       <c r="C150" s="2"/>
@@ -1440,7 +1798,9 @@
       <c r="C159" s="2"/>
     </row>
     <row r="160" spans="3:3" ht="16.5">
-      <c r="C160" s="2"/>
+      <c r="C160" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="161" spans="3:3" ht="16.5">
       <c r="C161" s="2"/>
@@ -1481,112 +1841,267 @@
     <row r="173" spans="3:3" ht="16.5">
       <c r="C173" s="2"/>
     </row>
-    <row r="179" spans="3:3">
-      <c r="C179" t="s">
-        <v>34</v>
-      </c>
+    <row r="174" spans="3:3" ht="16.5">
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" spans="3:3" ht="16.5">
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176" spans="3:3" ht="16.5">
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="1:3" ht="16.5">
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178" spans="1:3" ht="16.5">
+      <c r="C178" s="2"/>
+    </row>
+    <row r="179" spans="1:3" ht="16.5">
+      <c r="A179" t="s">
+        <v>26</v>
+      </c>
+      <c r="C179" s="2"/>
+    </row>
+    <row r="180" spans="1:3" ht="16.5">
+      <c r="C180" s="2"/>
+    </row>
+    <row r="181" spans="1:3" ht="16.5">
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182" spans="1:3" ht="16.5">
+      <c r="C182" s="2"/>
+    </row>
+    <row r="183" spans="1:3" ht="16.5">
+      <c r="C183" s="2"/>
+    </row>
+    <row r="184" spans="1:3" ht="16.5">
+      <c r="C184" s="2"/>
+    </row>
+    <row r="185" spans="1:3" ht="16.5">
+      <c r="C185" s="2"/>
+    </row>
+    <row r="186" spans="1:3" ht="16.5">
+      <c r="C186" s="2"/>
+    </row>
+    <row r="187" spans="1:3" ht="16.5">
+      <c r="C187" s="2"/>
+    </row>
+    <row r="189" spans="1:3" ht="16.5">
+      <c r="C189" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="16.5">
+      <c r="C190" s="2"/>
+    </row>
+    <row r="191" spans="1:3" ht="16.5">
+      <c r="C191" s="2"/>
+    </row>
+    <row r="192" spans="1:3" ht="16.5">
+      <c r="C192" s="2"/>
+    </row>
+    <row r="193" spans="3:3" ht="16.5">
+      <c r="C193" s="2"/>
+    </row>
+    <row r="194" spans="3:3" ht="16.5">
+      <c r="C194" s="2"/>
+    </row>
+    <row r="195" spans="3:3" ht="16.5">
+      <c r="C195" s="2"/>
+    </row>
+    <row r="196" spans="3:3" ht="16.5">
+      <c r="C196" s="2"/>
+    </row>
+    <row r="197" spans="3:3" ht="16.5">
+      <c r="C197" s="2"/>
+    </row>
+    <row r="198" spans="3:3" ht="16.5">
+      <c r="C198" s="2"/>
+    </row>
+    <row r="199" spans="3:3" ht="16.5">
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" spans="3:3" ht="16.5">
+      <c r="C200" s="2"/>
+    </row>
+    <row r="201" spans="3:3" ht="16.5">
+      <c r="C201" s="2"/>
+    </row>
+    <row r="202" spans="3:3" ht="16.5">
+      <c r="C202" s="2"/>
+    </row>
+    <row r="203" spans="3:3" ht="16.5">
+      <c r="C203" s="2"/>
+    </row>
+    <row r="204" spans="3:3" ht="16.5">
+      <c r="C204" s="2"/>
+    </row>
+    <row r="205" spans="3:3" ht="16.5">
+      <c r="C205" s="2"/>
+    </row>
+    <row r="206" spans="3:3" ht="16.5">
+      <c r="C206" s="2"/>
+    </row>
+    <row r="207" spans="3:3" ht="16.5">
+      <c r="C207" s="2"/>
+    </row>
+    <row r="208" spans="3:3" ht="16.5">
+      <c r="C208" s="2"/>
+    </row>
+    <row r="209" spans="3:3" ht="16.5">
+      <c r="C209" s="2"/>
+    </row>
+    <row r="210" spans="3:3" ht="16.5">
+      <c r="C210" s="2"/>
+    </row>
+    <row r="211" spans="3:3" ht="16.5">
+      <c r="C211" s="2"/>
+    </row>
+    <row r="212" spans="3:3" ht="16.5">
+      <c r="C212" s="2"/>
     </row>
     <row r="213" spans="3:3" ht="16.5">
       <c r="C213" s="2"/>
     </row>
-    <row r="214" spans="3:3" ht="16.5">
-      <c r="C214" s="2"/>
-    </row>
-    <row r="215" spans="3:3" ht="16.5">
-      <c r="C215" s="2"/>
-    </row>
-    <row r="216" spans="3:3" ht="16.5">
-      <c r="C216" s="2"/>
-    </row>
-    <row r="217" spans="3:3" ht="16.5">
-      <c r="C217" s="2"/>
-    </row>
-    <row r="218" spans="3:3" ht="16.5">
-      <c r="C218" s="2"/>
-    </row>
-    <row r="219" spans="3:3" ht="16.5">
-      <c r="C219" s="2"/>
-    </row>
-    <row r="220" spans="3:3" ht="16.5">
-      <c r="C220" s="2"/>
-    </row>
-    <row r="221" spans="3:3" ht="16.5">
-      <c r="C221" s="2"/>
-    </row>
-    <row r="222" spans="3:3" ht="16.5">
-      <c r="C222" s="2"/>
-    </row>
-    <row r="223" spans="3:3" ht="16.5">
-      <c r="C223" s="2"/>
-    </row>
-    <row r="224" spans="3:3" ht="16.5">
-      <c r="C224" s="2"/>
-    </row>
-    <row r="225" spans="3:3" ht="16.5">
-      <c r="C225" s="2"/>
-    </row>
-    <row r="226" spans="3:3" ht="16.5">
-      <c r="C226" s="2"/>
-    </row>
-    <row r="227" spans="3:3" ht="16.5">
-      <c r="C227" s="2"/>
-    </row>
-    <row r="228" spans="3:3" ht="16.5">
-      <c r="C228" s="2"/>
-    </row>
-    <row r="229" spans="3:3" ht="16.5">
-      <c r="C229" s="2"/>
-    </row>
-    <row r="230" spans="3:3" ht="16.5">
-      <c r="C230" s="2"/>
-    </row>
-    <row r="231" spans="3:3" ht="16.5">
-      <c r="C231" s="2"/>
-    </row>
-    <row r="232" spans="3:3" ht="16.5">
-      <c r="C232" s="2"/>
-    </row>
-    <row r="233" spans="3:3" ht="16.5">
-      <c r="C233" s="2"/>
-    </row>
-    <row r="234" spans="3:3" ht="16.5">
-      <c r="C234" s="2"/>
-    </row>
-    <row r="235" spans="3:3" ht="16.5">
-      <c r="C235" s="2"/>
-    </row>
-    <row r="236" spans="3:3" ht="16.5">
-      <c r="C236" s="2"/>
-    </row>
-    <row r="237" spans="3:3" ht="16.5">
-      <c r="C237" s="2"/>
-    </row>
-    <row r="246" spans="2:3" ht="16.5">
-      <c r="C246" s="2"/>
-    </row>
-    <row r="248" spans="2:3" ht="20">
-      <c r="B248" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="250" spans="2:3" ht="16.5">
-      <c r="C250" s="2" t="s">
+    <row r="219" spans="3:3">
+      <c r="C219" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="2:3" ht="16.5">
-      <c r="C251" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3" ht="16.5">
-      <c r="C253" s="2" t="s">
-        <v>30</v>
+    <row r="253" spans="3:3" ht="16.5">
+      <c r="C253" s="2"/>
+    </row>
+    <row r="254" spans="3:3" ht="16.5">
+      <c r="C254" s="2"/>
+    </row>
+    <row r="255" spans="3:3" ht="16.5">
+      <c r="C255" s="2"/>
+    </row>
+    <row r="256" spans="3:3" ht="16.5">
+      <c r="C256" s="2"/>
+    </row>
+    <row r="257" spans="3:3" ht="16.5">
+      <c r="C257" s="2"/>
+    </row>
+    <row r="258" spans="3:3" ht="16.5">
+      <c r="C258" s="2"/>
+    </row>
+    <row r="259" spans="3:3" ht="16.5">
+      <c r="C259" s="2"/>
+    </row>
+    <row r="260" spans="3:3" ht="16.5">
+      <c r="C260" s="2"/>
+    </row>
+    <row r="261" spans="3:3" ht="16.5">
+      <c r="C261" s="2"/>
+    </row>
+    <row r="262" spans="3:3" ht="16.5">
+      <c r="C262" s="2"/>
+    </row>
+    <row r="263" spans="3:3" ht="16.5">
+      <c r="C263" s="2"/>
+    </row>
+    <row r="264" spans="3:3" ht="16.5">
+      <c r="C264" s="2"/>
+    </row>
+    <row r="265" spans="3:3" ht="16.5">
+      <c r="C265" s="2"/>
+    </row>
+    <row r="266" spans="3:3" ht="16.5">
+      <c r="C266" s="2"/>
+    </row>
+    <row r="267" spans="3:3" ht="16.5">
+      <c r="C267" s="2"/>
+    </row>
+    <row r="268" spans="3:3" ht="16.5">
+      <c r="C268" s="2"/>
+    </row>
+    <row r="269" spans="3:3" ht="16.5">
+      <c r="C269" s="2"/>
+    </row>
+    <row r="270" spans="3:3" ht="16.5">
+      <c r="C270" s="2"/>
+    </row>
+    <row r="271" spans="3:3" ht="16.5">
+      <c r="C271" s="2"/>
+    </row>
+    <row r="272" spans="3:3" ht="16.5">
+      <c r="C272" s="2"/>
+    </row>
+    <row r="273" spans="2:3" ht="16.5">
+      <c r="C273" s="2"/>
+    </row>
+    <row r="274" spans="2:3" ht="16.5">
+      <c r="C274" s="2"/>
+    </row>
+    <row r="275" spans="2:3" ht="16.5">
+      <c r="C275" s="2"/>
+    </row>
+    <row r="276" spans="2:3" ht="16.5">
+      <c r="C276" s="2"/>
+    </row>
+    <row r="277" spans="2:3" ht="16.5">
+      <c r="C277" s="2"/>
+    </row>
+    <row r="286" spans="2:3" ht="16.5">
+      <c r="C286" s="2"/>
+    </row>
+    <row r="288" spans="2:3" ht="20">
+      <c r="B288" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3" ht="16.5">
+      <c r="C290" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" ht="16.5">
+      <c r="C291" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" ht="16.5">
+      <c r="C293" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3" ht="16.5">
+      <c r="C294" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3" ht="16.5">
+      <c r="C295" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3" ht="16.5">
+      <c r="C297" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3" ht="16.5">
+      <c r="C298" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" ht="16.5">
+      <c r="C300" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" ht="16.5">
+      <c r="C301" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1" display="http://localhost:8080/pages/student.html" xr:uid="{F3C68B2C-8F95-499F-B58A-1C7CF6B72A70}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>